--- a/论文表格.xlsx
+++ b/论文表格.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="异常图片" sheetId="1" r:id="rId1"/>
-    <sheet name="数据信息" sheetId="2" r:id="rId2"/>
-    <sheet name="新旧数据集" sheetId="3" r:id="rId3"/>
-    <sheet name="PCA-SVM" sheetId="4" r:id="rId4"/>
-    <sheet name="CNN" sheetId="5" r:id="rId5"/>
-    <sheet name="CNN-SVM" sheetId="6" r:id="rId6"/>
-    <sheet name="PCA-SVM CNN CNN-SVM" sheetId="7" r:id="rId7"/>
-    <sheet name="Python库及其版本" sheetId="8" r:id="rId8"/>
+    <sheet name="数据来源" sheetId="9" r:id="rId2"/>
+    <sheet name="数据信息" sheetId="2" r:id="rId3"/>
+    <sheet name="新旧数据集" sheetId="3" r:id="rId4"/>
+    <sheet name="PCA-SVM" sheetId="4" r:id="rId5"/>
+    <sheet name="CNN" sheetId="5" r:id="rId6"/>
+    <sheet name="CNN-SVM" sheetId="6" r:id="rId7"/>
+    <sheet name="PCA-SVM CNN CNN-SVM" sheetId="7" r:id="rId8"/>
+    <sheet name="Python库及其版本" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
   <si>
     <t>编号</t>
   </si>
@@ -99,6 +100,56 @@
   </si>
   <si>
     <t>normal346.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据源</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网址</t>
+    </r>
+  </si>
+  <si>
+    <t>Kaggle</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>https://github.com/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度图片</t>
+    </r>
+  </si>
+  <si>
+    <t>https://image.baidu.com/</t>
   </si>
   <si>
     <r>
@@ -1354,7 +1405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1450,6 +1501,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2087,6 +2150,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="8.88888888888889" style="32"/>
+    <col min="2" max="2" width="26.5555555555556" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:2">
+      <c r="A1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" spans="1:2">
+      <c r="A4" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="15.15"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -2103,24 +2220,24 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4">
         <v>266</v>
@@ -2138,7 +2255,7 @@
     </row>
     <row r="3" ht="15.15" spans="1:5">
       <c r="A3" s="23" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B3" s="23">
         <v>259</v>
@@ -2164,7 +2281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H12"/>
@@ -2185,24 +2302,24 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="28" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="14.4" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4">
         <v>259</v>
@@ -2220,7 +2337,7 @@
     </row>
     <row r="3" ht="15.15" spans="1:5">
       <c r="A3" s="23" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B3" s="23">
         <v>352</v>
@@ -2258,7 +2375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E7"/>
@@ -2278,24 +2395,24 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B2" s="25">
         <v>0.5</v>
@@ -2312,7 +2429,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B3" s="25">
         <v>0.89</v>
@@ -2329,7 +2446,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -2342,7 +2459,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B5" s="25">
         <v>0.7</v>
@@ -2359,7 +2476,7 @@
     </row>
     <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="23" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B6" s="26">
         <v>0.84</v>
@@ -2381,7 +2498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E7"/>
@@ -2401,24 +2518,24 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5">
         <v>0.9</v>
@@ -2435,7 +2552,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5">
         <v>0.88</v>
@@ -2452,7 +2569,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2465,7 +2582,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5">
         <v>0.89</v>
@@ -2482,7 +2599,7 @@
     </row>
     <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="23" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7">
         <v>0.89</v>
@@ -2504,7 +2621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E7"/>
@@ -2524,24 +2641,24 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5">
         <v>0.89</v>
@@ -2558,7 +2675,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5">
         <v>0.92</v>
@@ -2575,7 +2692,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2588,7 +2705,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5">
         <v>0.91</v>
@@ -2605,7 +2722,7 @@
     </row>
     <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="23" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7">
         <v>0.91</v>
@@ -2627,7 +2744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E16"/>
@@ -2647,27 +2764,27 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C2" s="14">
         <v>0.5</v>
@@ -2682,7 +2799,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C3" s="5">
         <v>0.89</v>
@@ -2697,7 +2814,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C4" s="5">
         <v>0.7</v>
@@ -2712,7 +2829,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5">
         <v>0.84</v>
@@ -2726,10 +2843,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C6" s="14">
         <v>0.25</v>
@@ -2744,7 +2861,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C7" s="17">
         <v>0.96</v>
@@ -2759,7 +2876,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5">
         <v>0.61</v>
@@ -2774,7 +2891,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5">
         <v>0.87</v>
@@ -2788,10 +2905,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C10" s="14">
         <v>0.33</v>
@@ -2806,7 +2923,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C11" s="17">
         <v>0.93</v>
@@ -2821,7 +2938,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="16"/>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5">
         <v>0.63</v>
@@ -2836,7 +2953,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5">
         <v>0.85</v>
@@ -2850,10 +2967,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="18" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C14" s="20">
         <v>0.87</v>
@@ -2865,21 +2982,21 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" ht="14.55" spans="1:5">
+    <row r="15" ht="15.15" spans="1:5">
       <c r="A15" s="22" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" ht="15.15"/>
@@ -2894,7 +3011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E16"/>
@@ -2914,208 +3031,208 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D14" s="5">
         <v>1.5</v>
@@ -3124,10 +3241,10 @@
     </row>
     <row r="15" ht="15.15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>

--- a/论文表格.xlsx
+++ b/论文表格.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="异常图片" sheetId="1" r:id="rId1"/>
     <sheet name="数据来源" sheetId="9" r:id="rId2"/>
-    <sheet name="数据信息" sheetId="2" r:id="rId3"/>
-    <sheet name="新旧数据集" sheetId="3" r:id="rId4"/>
-    <sheet name="PCA-SVM" sheetId="4" r:id="rId5"/>
-    <sheet name="CNN" sheetId="5" r:id="rId6"/>
-    <sheet name="CNN-SVM" sheetId="6" r:id="rId7"/>
-    <sheet name="PCA-SVM CNN CNN-SVM" sheetId="7" r:id="rId8"/>
-    <sheet name="Python库及其版本" sheetId="8" r:id="rId9"/>
+    <sheet name="比例划分" sheetId="10" r:id="rId3"/>
+    <sheet name="数据信息" sheetId="2" r:id="rId4"/>
+    <sheet name="新旧数据集" sheetId="3" r:id="rId5"/>
+    <sheet name="PCA-SVM" sheetId="4" r:id="rId6"/>
+    <sheet name="CNN" sheetId="5" r:id="rId7"/>
+    <sheet name="CNN-SVM" sheetId="6" r:id="rId8"/>
+    <sheet name="PCA-SVM CNN CNN-SVM" sheetId="7" r:id="rId9"/>
+    <sheet name="Python库及其版本" sheetId="8" r:id="rId10"/>
+    <sheet name="配置文件" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="124">
   <si>
     <t>编号</t>
   </si>
@@ -160,6 +162,60 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>模型名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>训练集</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试集</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证集</t>
+    </r>
+  </si>
+  <si>
+    <t>YOLOv8n-Detect</t>
+  </si>
+  <si>
+    <t>YOLOv8n-Segment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>类别</t>
     </r>
   </si>
@@ -654,6 +710,24 @@
   </si>
   <si>
     <t>2.25.0</t>
+  </si>
+  <si>
+    <t>模型名称</t>
+  </si>
+  <si>
+    <t>配置文件</t>
+  </si>
+  <si>
+    <t>YOLOv8-Segment</t>
+  </si>
+  <si>
+    <t>segment.yaml与yolov8-seg.yaml</t>
+  </si>
+  <si>
+    <t>YOLOv8-Detect</t>
+  </si>
+  <si>
+    <t>detect.yaml</t>
   </si>
 </sst>
 </file>
@@ -668,8 +742,16 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1087,6 +1169,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color auto="1"/>
       </left>
@@ -1106,15 +1197,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1275,243 +1357,264 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2041,107 +2144,398 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="4"/>
-    <col min="2" max="2" width="15.2222222222222" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="27"/>
+    <col min="1" max="1" width="8.88888888888889" style="10"/>
+    <col min="2" max="2" width="15.2222222222222" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="33"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="14.4" spans="1:3">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="14.55" spans="1:3">
+      <c r="A8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="14.55"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="22.8888888888889" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.33333333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.1111111111111" style="7" customWidth="1"/>
+    <col min="4" max="4" width="7.22222222222222" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:5">
+      <c r="A1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" ht="15.15" spans="1:5">
+      <c r="A15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" ht="15.15"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="33.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" ht="14.4" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" ht="14.55" spans="1:3">
-      <c r="A8" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" ht="14.55"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2159,39 +2553,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="32"/>
-    <col min="2" max="2" width="26.5555555555556" style="32" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="7"/>
+    <col min="2" max="2" width="26.5555555555556" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="15.15" spans="1:2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2203,6 +2597,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:4">
+      <c r="A1" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="40">
+        <v>8</v>
+      </c>
+      <c r="C2" s="40">
+        <v>1</v>
+      </c>
+      <c r="D2" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="14.55" spans="1:4">
+      <c r="A3" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="42">
+        <v>7</v>
+      </c>
+      <c r="C3" s="42">
+        <v>2</v>
+      </c>
+      <c r="D3" s="42">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J13"/>
@@ -2213,67 +2669,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="7" customWidth="1"/>
+    <col min="2" max="3" width="13" style="7" customWidth="1"/>
+    <col min="4" max="4" width="41" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>31</v>
+      <c r="A1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="10">
         <v>266</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="10">
         <v>35</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="11">
         <f>B2/C2</f>
         <v>7.6</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="10">
         <v>301</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:5">
-      <c r="A3" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="23">
+      <c r="A3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="29">
         <v>259</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="29">
         <v>41</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="13">
         <f>B3/C3</f>
         <v>6.31707317073171</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="29">
         <v>300</v>
       </c>
     </row>
     <row r="4" ht="15.15"/>
     <row r="13" spans="10:10">
-      <c r="J13" s="31"/>
+      <c r="J13" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2281,7 +2737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H12"/>
@@ -2292,82 +2748,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.6666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.7777777777778" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.2222222222222" style="4" customWidth="1"/>
-    <col min="4" max="4" width="41" style="4" customWidth="1"/>
-    <col min="5" max="5" width="5.88888888888889" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.88888888888889" style="27"/>
+    <col min="1" max="1" width="18.6666666666667" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.7777777777778" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.2222222222222" style="10" customWidth="1"/>
+    <col min="4" max="4" width="41" style="10" customWidth="1"/>
+    <col min="5" max="5" width="5.88888888888889" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.88888888888889" style="33"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="A1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>37</v>
+      <c r="E1" s="30" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="14.4" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="10">
         <v>259</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="10">
         <v>41</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="11">
         <f>B2/C2</f>
         <v>6.31707317073171</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:5">
-      <c r="A3" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="23">
+      <c r="A3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="29">
         <v>352</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="29">
         <v>329</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="13">
         <f>B3/C3</f>
         <v>1.06990881458967</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="29">
         <v>681</v>
       </c>
     </row>
     <row r="4" ht="14.55"/>
     <row r="8" spans="8:8">
-      <c r="H8" s="29"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="8:8">
-      <c r="H9" s="29"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="8:8">
-      <c r="H10" s="29"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="8:8">
-      <c r="H11" s="30"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="8:8">
-      <c r="H12" s="29"/>
+      <c r="H12" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2375,7 +2831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E7"/>
@@ -2394,100 +2850,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>44</v>
+      <c r="A1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="25">
+      <c r="A2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="31">
         <v>0.5</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="31">
         <v>0.25</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="31">
         <v>0.33</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="25">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="31">
         <v>0.89</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="31">
         <v>0.96</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="31">
         <v>0.93</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="10">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25">
+      <c r="A4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31">
         <v>0.87</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="10">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="25">
+      <c r="A5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="31">
         <v>0.7</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="31">
         <v>0.61</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="31">
         <v>0.63</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="10">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
-      <c r="A6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="26">
+      <c r="A6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="32">
         <v>0.84</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="32">
         <v>0.87</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="32">
         <v>0.85</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="29">
         <v>60</v>
       </c>
     </row>
@@ -2498,7 +2954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E7"/>
@@ -2517,100 +2973,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>44</v>
+      <c r="A1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="11">
         <v>0.9</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="11">
         <v>0.88</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="11">
         <v>0.89</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="10">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="11">
         <v>0.88</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="11">
         <v>0.9</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="11">
         <v>0.89</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="10">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="A4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11">
         <v>0.89</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="10">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="11">
         <v>0.89</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="11">
         <v>0.89</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="11">
         <v>0.89</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="10">
         <v>136</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
-      <c r="A6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="13">
         <v>0.89</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="13">
         <v>0.89</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="13">
         <v>0.89</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="29">
         <v>136</v>
       </c>
     </row>
@@ -2621,7 +3077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E7"/>
@@ -2640,100 +3096,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>44</v>
+      <c r="A1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="11">
         <v>0.89</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="11">
         <v>0.93</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="11">
         <v>0.91</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="10">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="11">
         <v>0.92</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="11">
         <v>0.88</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="11">
         <v>0.9</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="10">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="A4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11">
         <v>0.9</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="10">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="11">
         <v>0.91</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="11">
         <v>0.9</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="11">
         <v>0.9</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="10">
         <v>136</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
-      <c r="A6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="13">
         <v>0.91</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="13">
         <v>0.9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="13">
         <v>0.9</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="29">
         <v>136</v>
       </c>
     </row>
@@ -2744,7 +3200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E16"/>
@@ -2763,240 +3219,240 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C2" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="22"/>
+      <c r="B3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C3" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="22"/>
+      <c r="B4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="22"/>
+      <c r="B5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.88</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="22"/>
+      <c r="B7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.96</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="22"/>
+      <c r="B8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="22"/>
+      <c r="B9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.33</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.89</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="22"/>
+      <c r="B11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="22"/>
+      <c r="B12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="22"/>
+      <c r="B13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="B14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0.87</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0.89</v>
+      </c>
+      <c r="E14" s="27">
         <v>0.9</v>
       </c>
-      <c r="E2" s="14">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="16"/>
-      <c r="B3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="16"/>
-      <c r="B4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="16"/>
-      <c r="B5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0.88</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0.96</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="16"/>
-      <c r="B8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="16"/>
-      <c r="B9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0.33</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0.89</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="16"/>
-      <c r="B11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0.93</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="16"/>
-      <c r="B12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="16"/>
-      <c r="B13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0.87</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0.89</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="15" ht="15.15" spans="1:5">
-      <c r="A15" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>62</v>
+      <c r="A15" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" ht="15.15"/>
@@ -3009,250 +3465,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="22.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.22222222222222" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" ht="15.15" spans="1:5">
-      <c r="A15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" ht="15.15"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/论文表格.xlsx
+++ b/论文表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="4" activeTab="10"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="异常图片" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="PCA-SVM CNN CNN-SVM" sheetId="7" r:id="rId9"/>
     <sheet name="Python库及其版本" sheetId="8" r:id="rId10"/>
     <sheet name="配置文件" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="145">
   <si>
     <t>编号</t>
   </si>
@@ -729,18 +730,82 @@
   <si>
     <t>detect.yaml</t>
   </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t>fnames</t>
+  </si>
+  <si>
+    <t>置信度</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>Npotholes</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>00c9sdfq.jpg</t>
+  </si>
+  <si>
+    <t>00yf8rxj.jpg</t>
+  </si>
+  <si>
+    <t>01lx7dej.jpg</t>
+  </si>
+  <si>
+    <t>01paoyy0.jpg</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>zynixpux.jpg</t>
+  </si>
+  <si>
+    <t>zyylqfs0.jpg</t>
+  </si>
+  <si>
+    <t>zzhe6767.jpg</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>zzipq9zn.jpg</t>
+  </si>
+  <si>
+    <t>zzvomOax.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -756,13 +821,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -775,8 +839,9 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1487,112 +1552,133 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1602,16 +1688,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,97 +2230,97 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="10"/>
-    <col min="2" max="2" width="15.2222222222222" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="33"/>
+    <col min="1" max="1" width="8.88888888888889" style="17"/>
+    <col min="2" max="2" width="15.2222222222222" style="17" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="40"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.4" spans="1:3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="14.55" spans="1:3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2262,233 +2342,233 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.8888888888889" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.33333333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.1111111111111" style="7" customWidth="1"/>
-    <col min="4" max="4" width="7.22222222222222" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="1" width="22.8888888888889" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.33333333333333" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.1111111111111" style="14" customWidth="1"/>
+    <col min="4" max="4" width="7.22222222222222" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="18">
         <v>1.5</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="15.15" spans="1:5">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="10"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="15.15"/>
   </sheetData>
@@ -2500,42 +2580,455 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="33.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="13" t="s">
         <v>123</v>
       </c>
     </row>
+    <row r="4" ht="15.15"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77777777777778" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44444444444444" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.11111111111111" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.783255</v>
+      </c>
+      <c r="D2" s="6">
+        <v>54.144627</v>
+      </c>
+      <c r="E2" s="6">
+        <v>119.418549</v>
+      </c>
+      <c r="F2" s="6">
+        <v>127.293488</v>
+      </c>
+      <c r="G2" s="6">
+        <v>149.223495</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>259</v>
+      </c>
+      <c r="J2" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.727551</v>
+      </c>
+      <c r="D3" s="6">
+        <v>86.166367</v>
+      </c>
+      <c r="E3" s="6">
+        <v>92.886162</v>
+      </c>
+      <c r="F3" s="6">
+        <v>143.883499</v>
+      </c>
+      <c r="G3" s="6">
+        <v>117.42392</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>259</v>
+      </c>
+      <c r="J3" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.685144</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>268.575745</v>
+      </c>
+      <c r="F4" s="6">
+        <v>714.198425</v>
+      </c>
+      <c r="G4" s="6">
+        <v>439.384949</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>450</v>
+      </c>
+      <c r="J4" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.345122</v>
+      </c>
+      <c r="D5" s="6">
+        <v>723.983704</v>
+      </c>
+      <c r="E5" s="6">
+        <v>628.6203</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1671.653564</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1621.744507</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3264</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.447922</v>
+      </c>
+      <c r="D6" s="6">
+        <v>62.188206</v>
+      </c>
+      <c r="E6" s="6">
+        <v>54.767998</v>
+      </c>
+      <c r="F6" s="6">
+        <v>338.213837</v>
+      </c>
+      <c r="G6" s="6">
+        <v>239.532608</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>300</v>
+      </c>
+      <c r="J6" s="4">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4">
+        <v>6506</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.266729</v>
+      </c>
+      <c r="D8" s="6">
+        <v>55.626934</v>
+      </c>
+      <c r="E8" s="6">
+        <v>116.560684</v>
+      </c>
+      <c r="F8" s="6">
+        <v>126.989532</v>
+      </c>
+      <c r="G8" s="6">
+        <v>136.572723</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>300</v>
+      </c>
+      <c r="J8" s="4">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4">
+        <v>6507</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.829763</v>
+      </c>
+      <c r="D9" s="6">
+        <v>645.354004</v>
+      </c>
+      <c r="E9" s="6">
+        <v>481.915741</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1075.006836</v>
+      </c>
+      <c r="G9" s="6">
+        <v>717.232178</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>816</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4">
+        <v>6508</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>555</v>
+      </c>
+      <c r="J10" s="4">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4">
+        <v>6509</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>300</v>
+      </c>
+      <c r="J11" s="4">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" ht="14.55" spans="1:10">
+      <c r="A12" s="8">
+        <v>6510</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.711966</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.000822</v>
+      </c>
+      <c r="E12" s="10">
+        <v>369.854126</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1447.335327</v>
+      </c>
+      <c r="G12" s="10">
+        <v>984.154907</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1080</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2553,39 +3046,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="7"/>
-    <col min="2" max="2" width="26.5555555555556" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="14"/>
+    <col min="2" max="2" width="26.5555555555556" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="15.15" spans="1:2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2599,59 +3092,60 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="45" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="46">
         <v>8</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="46">
         <v>1</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.55" spans="1:4">
-      <c r="A3" s="41" t="s">
+    <row r="3" ht="15.15" spans="1:4">
+      <c r="A3" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="47">
         <v>7</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="47">
         <v>2</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="47">
         <v>1</v>
       </c>
     </row>
+    <row r="4" ht="15.15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2669,67 +3163,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" style="7" customWidth="1"/>
-    <col min="2" max="3" width="13" style="7" customWidth="1"/>
-    <col min="4" max="4" width="41" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" style="14" customWidth="1"/>
+    <col min="2" max="3" width="13" style="14" customWidth="1"/>
+    <col min="4" max="4" width="41" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="37" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="17">
         <v>266</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="17">
         <v>35</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="18">
         <f>B2/C2</f>
         <v>7.6</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="17">
         <v>301</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:5">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="36">
         <v>259</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="36">
         <v>41</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="20">
         <f>B3/C3</f>
         <v>6.31707317073171</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="36">
         <v>300</v>
       </c>
     </row>
     <row r="4" ht="15.15"/>
     <row r="13" spans="10:10">
-      <c r="J13" s="37"/>
+      <c r="J13" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2748,82 +3242,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.6666666666667" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.7777777777778" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.2222222222222" style="10" customWidth="1"/>
-    <col min="4" max="4" width="41" style="10" customWidth="1"/>
-    <col min="5" max="5" width="5.88888888888889" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="8.88888888888889" style="33"/>
+    <col min="1" max="1" width="18.6666666666667" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.7777777777778" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.2222222222222" style="17" customWidth="1"/>
+    <col min="4" max="4" width="41" style="17" customWidth="1"/>
+    <col min="5" max="5" width="5.88888888888889" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="8.88888888888889" style="40"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="37" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" ht="14.4" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="17">
         <v>259</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="17">
         <v>41</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="18">
         <f>B2/C2</f>
         <v>6.31707317073171</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="17">
         <v>300</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:5">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="36">
         <v>352</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="36">
         <v>329</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="20">
         <f>B3/C3</f>
         <v>1.06990881458967</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="36">
         <v>681</v>
       </c>
     </row>
     <row r="4" ht="14.55"/>
     <row r="8" spans="8:8">
-      <c r="H8" s="35"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="8:8">
-      <c r="H9" s="35"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="8:8">
-      <c r="H10" s="35"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="8:8">
-      <c r="H11" s="36"/>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" spans="8:8">
-      <c r="H12" s="35"/>
+      <c r="H12" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2850,100 +3344,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="37" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="38">
         <v>0.5</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="38">
         <v>0.25</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="38">
         <v>0.33</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="38">
         <v>0.89</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="38">
         <v>0.96</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="38">
         <v>0.93</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="17">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38">
         <v>0.87</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="38">
         <v>0.7</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="38">
         <v>0.61</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="38">
         <v>0.63</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="39">
         <v>0.84</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="39">
         <v>0.87</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="39">
         <v>0.85</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="36">
         <v>60</v>
       </c>
     </row>
@@ -2973,100 +3467,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="37" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="18">
         <v>0.9</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="18">
         <v>0.88</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="18">
         <v>0.89</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="17">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="18">
         <v>0.88</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="18">
         <v>0.9</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="18">
         <v>0.89</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="17">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18">
         <v>0.89</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="17">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="18">
         <v>0.89</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="18">
         <v>0.89</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="18">
         <v>0.89</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="17">
         <v>136</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="20">
         <v>0.89</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="20">
         <v>0.89</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="20">
         <v>0.89</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="36">
         <v>136</v>
       </c>
     </row>
@@ -3096,100 +3590,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="37" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="18">
         <v>0.89</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="18">
         <v>0.93</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="18">
         <v>0.91</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="17">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="18">
         <v>0.92</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="18">
         <v>0.88</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="18">
         <v>0.9</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="17">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18">
         <v>0.9</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="17">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="18">
         <v>0.91</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="18">
         <v>0.9</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="18">
         <v>0.9</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="17">
         <v>136</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="20">
         <v>0.91</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="20">
         <v>0.9</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="20">
         <v>0.9</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="36">
         <v>136</v>
       </c>
     </row>
@@ -3219,239 +3713,239 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="27">
         <v>0.5</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="28">
         <v>0.9</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="27">
         <v>0.89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="22"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="18">
         <v>0.89</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="18">
         <v>0.88</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="30">
         <v>0.92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="22"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="18">
         <v>0.7</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="18">
         <v>0.89</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="30">
         <v>0.91</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="22"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="18">
         <v>0.84</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="18">
         <v>0.89</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="30">
         <v>0.91</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="27">
         <v>0.25</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="27">
         <v>0.88</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="28">
         <v>0.93</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="22"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="30">
         <v>0.96</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="18">
         <v>0.9</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="18">
         <v>0.88</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="22"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="18">
         <v>0.61</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="18">
         <v>0.89</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="30">
         <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="22"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="18">
         <v>0.87</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="18">
         <v>0.89</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="30">
         <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="27">
         <v>0.33</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="27">
         <v>0.89</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="28">
         <v>0.91</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="22"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="30">
         <v>0.93</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="18">
         <v>0.89</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="18">
         <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="22"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="18">
         <v>0.63</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="18">
         <v>0.89</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="30">
         <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="22"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="18">
         <v>0.85</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="18">
         <v>0.89</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="30">
         <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="33">
         <v>0.87</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="33">
         <v>0.89</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="34">
         <v>0.9</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="1:5">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="36" t="s">
         <v>68</v>
       </c>
     </row>
